--- a/search_result.xlsx
+++ b/search_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Länkar ↓ Nyckelord →</t>
   </si>
@@ -22,25 +22,13 @@
     <t>https://www.umu.se/utbildning/kursplan/5el045/</t>
   </si>
   <si>
-    <t>kurser</t>
+    <t>godkänd</t>
   </si>
   <si>
-    <t>Intelligenta mobila system - Kurser - Studera - Jönköping University Våra skolor Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Laddar Typ Typ Fältet är obligatoriskt Kurs Program Yh-utbildning Plats Plats Distans Campus Termin Termin 2022 Vår 2022 Sommar 2022 Höst Skola Skola Hälsohögskolan Högskolan för lärande och kommunikation Jönköping International Business School Tekniska Högskolan Nivå Nivå Gymnasienivå Grundnivå Avancerad nivå Undervisningsspråk Undervisningsspråk Svenska Engelska Sen anmälan Sen anmälan Ja Studietakt Studietakt 25% 50% 100% Fler sökalternativ Färre sökalternativ Varning! Alla funktioner på sidan fungerar inte korrekt utan javascript! Intelligenta mobila system 7,5 hp Kursinnehåll Kursplanen är under utarbetandeKursen förmedlar till studenterna sådana kunskaper i mjukvaruutvecklingsmetoder, projektledning, beslutsfattande, analys, ledarskap, kommunikation, etc</t>
+    <t xml:space="preserve"> På ett skriftligt prov sätts något av betygen Underkänd (U), Godkänd (3), Icke utan beröm godkänd (4) eller Med beröm godkänd (5)</t>
   </si>
   <si>
-    <t>https://www.umu.se/utbildning/kursplan/5tf072/</t>
-  </si>
-  <si>
-    <t>mobila</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kursen innehåller följande moment: - Mjukvaruutveckling: historia, terminologi och metoder- Mjukvaruutvecklingsmetoder: en överblick- Projekt som arbetsform, projektledarrollen och projektmodellen- Projektdefinition inklusive riskanalys, intressentanalys och kostnadsplanering- En minimalistisk approach till mjukvarudokumentation- Programvaruutvecklingsmodeller, t ex SCRUM och V-Modellen- Uppföljning och utvärdering (retrospektiv) över projektet Förkunskapskrav Grundläggande behörighet samt genomgångna kurser Mjukvaruprojektmetoder, 7,5 hp, Objektorienterad mjukvarudesign och Android och gränssnittsdesign, 7,5 hp Utbildningsnivå: Grundnivå Kurskod/Ladokkod: TIGK10 Kursen ges vid: Tidigare och pågående kurstillfällen Typ av Kurs Programkurs Studieform Campus Termin Våren 2020: vecka 13 - vecka 22 Studietakt 100% Ort Jönköping Kurstid Dag Examinator Kursansvarig Gäller enbart studenter utanför EU/EES/Schweiz: Studieavgift 16253kr Kursplan Anmälningskod HJ-T0131 Senast ändrad 2021-04-12 08:09:51 Studenter och personal Besöksadress Jönköping UniversityGjuterigatan 5 Kontakt 036-101000 Innan du fortsätter till ju</t>
-  </si>
-  <si>
-    <t>https://ju.se/studera/valj-utbildning/kurser.html?courseCode=TIGK10&amp;semester=20201&amp;revision=1,000</t>
-  </si>
-  <si>
-    <t>mjukvarudesign</t>
+    <t>Inget nyckelord</t>
   </si>
 </sst>
 </file>
@@ -385,14 +373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -402,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -416,27 +401,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
